--- a/Code/Results/Cases/Case_6_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003768829381126</v>
+        <v>0.9993960869402535</v>
       </c>
       <c r="D2">
-        <v>1.024682620177411</v>
+        <v>1.021693496542823</v>
       </c>
       <c r="E2">
-        <v>1.009300725637236</v>
+        <v>1.005871098334296</v>
       </c>
       <c r="F2">
-        <v>1.02872886417839</v>
+        <v>1.025686975542922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045585667466959</v>
+        <v>1.044593954649923</v>
       </c>
       <c r="J2">
-        <v>1.025837396793155</v>
+        <v>1.021594875958779</v>
       </c>
       <c r="K2">
-        <v>1.035808471902422</v>
+        <v>1.032858658187178</v>
       </c>
       <c r="L2">
-        <v>1.020631989624339</v>
+        <v>1.017249240955445</v>
       </c>
       <c r="M2">
-        <v>1.039801959384022</v>
+        <v>1.0367996834352</v>
       </c>
       <c r="N2">
-        <v>1.027294203561804</v>
+        <v>1.02304565786121</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010402230761378</v>
+        <v>1.003966365044534</v>
       </c>
       <c r="D3">
-        <v>1.02978393902641</v>
+        <v>1.025124037227343</v>
       </c>
       <c r="E3">
-        <v>1.01478377958778</v>
+        <v>1.009525844212664</v>
       </c>
       <c r="F3">
-        <v>1.034371279149192</v>
+        <v>1.029632648336269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047430287217143</v>
+        <v>1.045670445369178</v>
       </c>
       <c r="J3">
-        <v>1.03061328208468</v>
+        <v>1.024349483868611</v>
       </c>
       <c r="K3">
-        <v>1.040049400295199</v>
+        <v>1.035445234913349</v>
       </c>
       <c r="L3">
-        <v>1.025230930171663</v>
+        <v>1.020038273892084</v>
       </c>
       <c r="M3">
-        <v>1.044582479235008</v>
+        <v>1.039899909349153</v>
       </c>
       <c r="N3">
-        <v>1.032076871158236</v>
+        <v>1.025804177630233</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014580678193539</v>
+        <v>1.006864763949407</v>
       </c>
       <c r="D4">
-        <v>1.032999749438168</v>
+        <v>1.027301844048682</v>
       </c>
       <c r="E4">
-        <v>1.018243768943979</v>
+        <v>1.011849777740558</v>
       </c>
       <c r="F4">
-        <v>1.03793064047621</v>
+        <v>1.032139146051349</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04858059670376</v>
+        <v>1.046342881536231</v>
       </c>
       <c r="J4">
-        <v>1.033618622204291</v>
+        <v>1.026094483658939</v>
       </c>
       <c r="K4">
-        <v>1.042715564898939</v>
+        <v>1.037081558733306</v>
       </c>
       <c r="L4">
-        <v>1.028126883291996</v>
+        <v>1.021807259552866</v>
       </c>
       <c r="M4">
-        <v>1.047591854353893</v>
+        <v>1.041864557091238</v>
       </c>
       <c r="N4">
-        <v>1.035086479205534</v>
+        <v>1.027551655520417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016311408317054</v>
+        <v>1.008069657641959</v>
       </c>
       <c r="D5">
-        <v>1.034332236599117</v>
+        <v>1.028207651099559</v>
       </c>
       <c r="E5">
-        <v>1.019678308449754</v>
+        <v>1.012817289696424</v>
       </c>
       <c r="F5">
-        <v>1.03940607866708</v>
+        <v>1.03318207756338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049054207586426</v>
+        <v>1.046619916281889</v>
       </c>
       <c r="J5">
-        <v>1.034862655143383</v>
+        <v>1.026819397780015</v>
       </c>
       <c r="K5">
-        <v>1.043818565291092</v>
+        <v>1.037760775491621</v>
       </c>
       <c r="L5">
-        <v>1.029326100645247</v>
+        <v>1.022542659819818</v>
       </c>
       <c r="M5">
-        <v>1.048837801629897</v>
+        <v>1.042680875974508</v>
       </c>
       <c r="N5">
-        <v>1.036332278814093</v>
+        <v>1.028277599102694</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016600524980298</v>
+        <v>1.008271181618674</v>
       </c>
       <c r="D6">
-        <v>1.034554852935204</v>
+        <v>1.028359177438467</v>
       </c>
       <c r="E6">
-        <v>1.019918026740171</v>
+        <v>1.012979193194848</v>
       </c>
       <c r="F6">
-        <v>1.039652613125398</v>
+        <v>1.033356567182445</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049133154374032</v>
+        <v>1.046666103208438</v>
       </c>
       <c r="J6">
-        <v>1.035070421271856</v>
+        <v>1.02694061253896</v>
       </c>
       <c r="K6">
-        <v>1.044002739582118</v>
+        <v>1.037874316249116</v>
       </c>
       <c r="L6">
-        <v>1.029526409247556</v>
+        <v>1.022665658655475</v>
       </c>
       <c r="M6">
-        <v>1.049045901147247</v>
+        <v>1.042817383719886</v>
       </c>
       <c r="N6">
-        <v>1.036540339994299</v>
+        <v>1.0283989860005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014603904299597</v>
+        <v>1.006880916562881</v>
       </c>
       <c r="D7">
-        <v>1.033017629398926</v>
+        <v>1.027313985372185</v>
       </c>
       <c r="E7">
-        <v>1.018263014795373</v>
+        <v>1.011862742466567</v>
       </c>
       <c r="F7">
-        <v>1.037950436240044</v>
+        <v>1.032153123725271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048586963840482</v>
+        <v>1.046346605365042</v>
       </c>
       <c r="J7">
-        <v>1.033635320125877</v>
+        <v>1.026104203765047</v>
       </c>
       <c r="K7">
-        <v>1.042730372363279</v>
+        <v>1.037090668296843</v>
       </c>
       <c r="L7">
-        <v>1.028142977851514</v>
+        <v>1.021817118202833</v>
       </c>
       <c r="M7">
-        <v>1.047608577035809</v>
+        <v>1.041875502201012</v>
       </c>
       <c r="N7">
-        <v>1.035103200840084</v>
+        <v>1.02756138943019</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006035031647402</v>
+        <v>1.000953134866417</v>
       </c>
       <c r="D8">
-        <v>1.026424833028899</v>
+        <v>1.022861746516708</v>
       </c>
       <c r="E8">
-        <v>1.011172581560222</v>
+        <v>1.007114915229463</v>
       </c>
       <c r="F8">
-        <v>1.030655364349236</v>
+        <v>1.027030308530251</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046218266699412</v>
+        <v>1.044962828136745</v>
       </c>
       <c r="J8">
-        <v>1.027469607203555</v>
+        <v>1.022533724790159</v>
       </c>
       <c r="K8">
-        <v>1.037258375303552</v>
+        <v>1.033740695653415</v>
       </c>
       <c r="L8">
-        <v>1.022203310351254</v>
+        <v>1.018199365309604</v>
       </c>
       <c r="M8">
-        <v>1.04143550254125</v>
+        <v>1.037856173912342</v>
       </c>
       <c r="N8">
-        <v>1.028928731898196</v>
+        <v>1.023985839965619</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9899973580643671</v>
+        <v>0.9900328276410613</v>
       </c>
       <c r="D9">
-        <v>1.014110336706242</v>
+        <v>1.014680208913579</v>
       </c>
       <c r="E9">
-        <v>0.9979557379078615</v>
+        <v>0.9984195399378047</v>
       </c>
       <c r="F9">
-        <v>1.017048315364995</v>
+        <v>1.017629168128424</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04169406672902</v>
+        <v>1.042334037459033</v>
       </c>
       <c r="J9">
-        <v>1.015908348188824</v>
+        <v>1.01594252951284</v>
       </c>
       <c r="K9">
-        <v>1.026978557838854</v>
+        <v>1.027539516830986</v>
       </c>
       <c r="L9">
-        <v>1.011082069139133</v>
+        <v>1.011538311153704</v>
       </c>
       <c r="M9">
-        <v>1.029870721102838</v>
+        <v>1.030442555955858</v>
       </c>
       <c r="N9">
-        <v>1.017351054569568</v>
+        <v>1.017385284434986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9785716599118701</v>
+        <v>0.9823978567713051</v>
       </c>
       <c r="D10">
-        <v>1.005361779110595</v>
+        <v>1.00897822607727</v>
       </c>
       <c r="E10">
-        <v>0.9885826373503035</v>
+        <v>0.9923782102164331</v>
       </c>
       <c r="F10">
-        <v>1.007393799384725</v>
+        <v>1.011084936214691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038413484300408</v>
+        <v>1.040445118907523</v>
       </c>
       <c r="J10">
-        <v>1.007662031740309</v>
+        <v>1.011327683689856</v>
       </c>
       <c r="K10">
-        <v>1.019634895135306</v>
+        <v>1.02318724620063</v>
       </c>
       <c r="L10">
-        <v>1.003161141759045</v>
+        <v>1.006886455670684</v>
       </c>
       <c r="M10">
-        <v>1.021630827529305</v>
+        <v>1.025256892045612</v>
       </c>
       <c r="N10">
-        <v>1.009093027405831</v>
+        <v>1.012763885001602</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9734237200284872</v>
+        <v>0.9789990731065994</v>
       </c>
       <c r="D11">
-        <v>1.001427861731923</v>
+        <v>1.006445257958897</v>
       </c>
       <c r="E11">
-        <v>0.9843713250305253</v>
+        <v>0.9896986982471968</v>
       </c>
       <c r="F11">
-        <v>1.003055251743049</v>
+        <v>1.008179463835093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036922846476748</v>
+        <v>1.039592817748535</v>
       </c>
       <c r="J11">
-        <v>1.003945477007415</v>
+        <v>1.009272386537597</v>
       </c>
       <c r="K11">
-        <v>1.016322900814894</v>
+        <v>1.021246641205735</v>
       </c>
       <c r="L11">
-        <v>0.9995941189037393</v>
+        <v>1.004817532348926</v>
       </c>
       <c r="M11">
-        <v>1.017919779583367</v>
+        <v>1.022948758559248</v>
       </c>
       <c r="N11">
-        <v>1.005371194738921</v>
+        <v>1.010705669091641</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9714788637247312</v>
+        <v>0.9777218795479811</v>
       </c>
       <c r="D12">
-        <v>0.9999430141363905</v>
+        <v>1.005494311714165</v>
       </c>
       <c r="E12">
-        <v>0.9827822476304546</v>
+        <v>0.9886933450627381</v>
       </c>
       <c r="F12">
-        <v>1.00141807457455</v>
+        <v>1.007088899763342</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036357910535135</v>
+        <v>1.039270882216513</v>
       </c>
       <c r="J12">
-        <v>1.002541334833372</v>
+        <v>1.008499959320819</v>
       </c>
       <c r="K12">
-        <v>1.01507130598685</v>
+        <v>1.02051700100572</v>
       </c>
       <c r="L12">
-        <v>0.998246917629018</v>
+        <v>1.004040416626312</v>
       </c>
       <c r="M12">
-        <v>1.016518156849217</v>
+        <v>1.022081536271553</v>
       </c>
       <c r="N12">
-        <v>1.003965058521933</v>
+        <v>1.009932144939616</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9718975651415956</v>
+        <v>0.9779965220026564</v>
       </c>
       <c r="D13">
-        <v>1.000262617340039</v>
+        <v>1.005698757493427</v>
       </c>
       <c r="E13">
-        <v>0.98312426501302</v>
+        <v>0.9889094607036613</v>
       </c>
       <c r="F13">
-        <v>1.001770447995517</v>
+        <v>1.007323352101475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03647961242937</v>
+        <v>1.039340183851251</v>
       </c>
       <c r="J13">
-        <v>1.002843628239364</v>
+        <v>1.008666061988012</v>
       </c>
       <c r="K13">
-        <v>1.015340770738248</v>
+        <v>1.020673916726543</v>
       </c>
       <c r="L13">
-        <v>0.9985369320055704</v>
+        <v>1.004207507909885</v>
       </c>
       <c r="M13">
-        <v>1.016819887242542</v>
+        <v>1.022268013120903</v>
       </c>
       <c r="N13">
-        <v>1.004267781219236</v>
+        <v>1.010098483491649</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9732636401105574</v>
+        <v>0.9788938052431718</v>
       </c>
       <c r="D14">
-        <v>1.001305616138116</v>
+        <v>1.006366861137428</v>
       </c>
       <c r="E14">
-        <v>0.9842404890155277</v>
+        <v>0.9896158038032822</v>
       </c>
       <c r="F14">
-        <v>1.00292045708329</v>
+        <v>1.008089552209417</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036876382516422</v>
+        <v>1.039566316779932</v>
       </c>
       <c r="J14">
-        <v>1.003829903326042</v>
+        <v>1.009208723611054</v>
       </c>
       <c r="K14">
-        <v>1.016219888980656</v>
+        <v>1.021186511072292</v>
       </c>
       <c r="L14">
-        <v>0.9994832228297875</v>
+        <v>1.004753474187141</v>
       </c>
       <c r="M14">
-        <v>1.017804404085125</v>
+        <v>1.022877277973791</v>
       </c>
       <c r="N14">
-        <v>1.005255456929665</v>
+        <v>1.010641915756441</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9741009119500764</v>
+        <v>0.9794446739900433</v>
       </c>
       <c r="D15">
-        <v>1.001945058163365</v>
+        <v>1.006777150100514</v>
       </c>
       <c r="E15">
-        <v>0.9849248847402744</v>
+        <v>0.990049655757159</v>
       </c>
       <c r="F15">
-        <v>1.003625556803583</v>
+        <v>1.008560113085266</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037119332762572</v>
+        <v>1.039704929625153</v>
       </c>
       <c r="J15">
-        <v>1.004434391104092</v>
+        <v>1.009541869650754</v>
       </c>
       <c r="K15">
-        <v>1.016758662336674</v>
+        <v>1.021501157330777</v>
       </c>
       <c r="L15">
-        <v>1.000063263457707</v>
+        <v>1.005088706130696</v>
       </c>
       <c r="M15">
-        <v>1.018407873441703</v>
+        <v>1.023251342915668</v>
       </c>
       <c r="N15">
-        <v>1.005860803149695</v>
+        <v>1.010975534901729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9789088751440044</v>
+        <v>0.9826214014154091</v>
       </c>
       <c r="D16">
-        <v>1.005619647148623</v>
+        <v>1.009144942928673</v>
       </c>
       <c r="E16">
-        <v>0.988858756321191</v>
+        <v>0.9925546582327817</v>
       </c>
       <c r="F16">
-        <v>1.007678246621708</v>
+        <v>1.011276203751755</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038510876619219</v>
+        <v>1.040500943188615</v>
       </c>
       <c r="J16">
-        <v>1.007905470525322</v>
+        <v>1.011462849307587</v>
       </c>
       <c r="K16">
-        <v>1.019851791249487</v>
+        <v>1.023314824034528</v>
       </c>
       <c r="L16">
-        <v>1.003394846883181</v>
+        <v>1.007022577195283</v>
       </c>
       <c r="M16">
-        <v>1.02187396357262</v>
+        <v>1.025408715726212</v>
       </c>
       <c r="N16">
-        <v>1.009336811901841</v>
+        <v>1.012899242570014</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9818693791674676</v>
+        <v>0.9845886932107506</v>
       </c>
       <c r="D17">
-        <v>1.007884445150527</v>
+        <v>1.010612742064027</v>
       </c>
       <c r="E17">
-        <v>0.9912842327259576</v>
+        <v>0.9941086083767645</v>
       </c>
       <c r="F17">
-        <v>1.010176793104021</v>
+        <v>1.012960336114626</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039364502676633</v>
+        <v>1.040990927256256</v>
       </c>
       <c r="J17">
-        <v>1.01004257263944</v>
+        <v>1.012652264531553</v>
       </c>
       <c r="K17">
-        <v>1.021755629476525</v>
+        <v>1.024437215528344</v>
       </c>
       <c r="L17">
-        <v>1.005446826429411</v>
+        <v>1.008220729619001</v>
       </c>
       <c r="M17">
-        <v>1.024008708520992</v>
+        <v>1.026744876656467</v>
       </c>
       <c r="N17">
-        <v>1.01147694894609</v>
+        <v>1.014090346900026</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9835770291616419</v>
+        <v>0.9857272847084854</v>
       </c>
       <c r="D18">
-        <v>1.009191527936518</v>
+        <v>1.01146274602556</v>
       </c>
       <c r="E18">
-        <v>0.9926843753866906</v>
+        <v>0.9950089033132817</v>
       </c>
       <c r="F18">
-        <v>1.011619039323816</v>
+        <v>1.013935776248135</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039855694331466</v>
+        <v>1.041273422097313</v>
       </c>
       <c r="J18">
-        <v>1.011275163163544</v>
+        <v>1.013340557406754</v>
       </c>
       <c r="K18">
-        <v>1.02285346760187</v>
+        <v>1.02508650808379</v>
       </c>
       <c r="L18">
-        <v>1.00663059228403</v>
+        <v>1.008914349353589</v>
       </c>
       <c r="M18">
-        <v>1.025240182325649</v>
+        <v>1.027518218923227</v>
       </c>
       <c r="N18">
-        <v>1.012711289890119</v>
+        <v>1.014779617230058</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9841561164324946</v>
+        <v>0.9861140291597675</v>
       </c>
       <c r="D19">
-        <v>1.009634894929024</v>
+        <v>1.011751548225256</v>
       </c>
       <c r="E19">
-        <v>0.9931593654355932</v>
+        <v>0.9953148612914734</v>
       </c>
       <c r="F19">
-        <v>1.012108298803648</v>
+        <v>1.01426722453912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040022059545335</v>
+        <v>1.04136919048622</v>
       </c>
       <c r="J19">
-        <v>1.011693129040228</v>
+        <v>1.013574331741128</v>
       </c>
       <c r="K19">
-        <v>1.023225701821498</v>
+        <v>1.02530699913398</v>
       </c>
       <c r="L19">
-        <v>1.007032047428092</v>
+        <v>1.009149978764256</v>
       </c>
       <c r="M19">
-        <v>1.02565780940729</v>
+        <v>1.02778090133014</v>
       </c>
       <c r="N19">
-        <v>1.013129849326289</v>
+        <v>1.015013723550802</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.981553744651659</v>
+        <v>0.9843785471826961</v>
       </c>
       <c r="D20">
-        <v>1.007642907020763</v>
+        <v>1.01045589938979</v>
       </c>
       <c r="E20">
-        <v>0.9910255247126361</v>
+        <v>0.9939425185546265</v>
       </c>
       <c r="F20">
-        <v>1.009910299050931</v>
+        <v>1.012780360798517</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039273616032893</v>
+        <v>1.040938699719601</v>
       </c>
       <c r="J20">
-        <v>1.009814736145109</v>
+        <v>1.012525220629408</v>
       </c>
       <c r="K20">
-        <v>1.021552683369531</v>
+        <v>1.024317352718944</v>
       </c>
       <c r="L20">
-        <v>1.005228036666387</v>
+        <v>1.008092724360035</v>
       </c>
       <c r="M20">
-        <v>1.023781097786806</v>
+        <v>1.026602144893789</v>
       </c>
       <c r="N20">
-        <v>1.011248788897804</v>
+        <v>1.013963122580968</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9728622892418367</v>
+        <v>0.9786299910768268</v>
       </c>
       <c r="D21">
-        <v>1.000999145660364</v>
+        <v>1.006170403775124</v>
       </c>
       <c r="E21">
-        <v>0.9839124897381727</v>
+        <v>0.98940808543824</v>
       </c>
       <c r="F21">
-        <v>1.002582532353681</v>
+        <v>1.007864243150903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036759860184741</v>
+        <v>1.039499875599545</v>
       </c>
       <c r="J21">
-        <v>1.003540137623141</v>
+        <v>1.009049175280446</v>
       </c>
       <c r="K21">
-        <v>1.015961613613353</v>
+        <v>1.021035811391323</v>
       </c>
       <c r="L21">
-        <v>0.9992051920332675</v>
+        <v>1.004592942320285</v>
       </c>
       <c r="M21">
-        <v>1.017515142493333</v>
+        <v>1.0226981411936</v>
       </c>
       <c r="N21">
-        <v>1.004965279726229</v>
+        <v>1.010482140848902</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9672070505049446</v>
+        <v>0.9749299645786113</v>
       </c>
       <c r="D22">
-        <v>0.9966843211171333</v>
+        <v>1.003417309610484</v>
       </c>
       <c r="E22">
-        <v>0.9792956260921843</v>
+        <v>0.9864986062820368</v>
       </c>
       <c r="F22">
-        <v>0.9978257880885461</v>
+        <v>1.004707357589584</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035113880442224</v>
+        <v>1.038564157369787</v>
       </c>
       <c r="J22">
-        <v>0.9994572194759979</v>
+        <v>1.006811351547059</v>
       </c>
       <c r="K22">
-        <v>1.012321749661705</v>
+        <v>1.018921371548891</v>
       </c>
       <c r="L22">
-        <v>0.9952887094583818</v>
+        <v>1.002342358616599</v>
       </c>
       <c r="M22">
-        <v>1.013440439938921</v>
+        <v>1.020186134066838</v>
       </c>
       <c r="N22">
-        <v>1.000876563366999</v>
+        <v>1.008241139149131</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9702239954191701</v>
+        <v>0.976899820095174</v>
       </c>
       <c r="D23">
-        <v>0.9989853624197088</v>
+        <v>1.004882502773411</v>
       </c>
       <c r="E23">
-        <v>0.9817575001589263</v>
+        <v>0.9880467013993265</v>
       </c>
       <c r="F23">
-        <v>1.000362287894353</v>
+        <v>1.006387327960916</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035992911030483</v>
+        <v>1.039063210353678</v>
       </c>
       <c r="J23">
-        <v>1.00163534846658</v>
+        <v>1.008002772404027</v>
       </c>
       <c r="K23">
-        <v>1.014263668076414</v>
+        <v>1.020047268155763</v>
       </c>
       <c r="L23">
-        <v>0.997377798653115</v>
+        <v>1.003540334193215</v>
       </c>
       <c r="M23">
-        <v>1.015613926029455</v>
+        <v>1.021523398981175</v>
       </c>
       <c r="N23">
-        <v>1.003057785550583</v>
+        <v>1.009434251960375</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9816964253298869</v>
+        <v>0.9844735305621842</v>
       </c>
       <c r="D24">
-        <v>1.007752090642577</v>
+        <v>1.010526788778166</v>
       </c>
       <c r="E24">
-        <v>0.9911424686979544</v>
+        <v>0.9940175862033634</v>
       </c>
       <c r="F24">
-        <v>1.01003076280786</v>
+        <v>1.012861705135669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039314704490505</v>
+        <v>1.040962309293819</v>
       </c>
       <c r="J24">
-        <v>1.009917728615384</v>
+        <v>1.012582643182004</v>
       </c>
       <c r="K24">
-        <v>1.021644424923792</v>
+        <v>1.024371530158556</v>
       </c>
       <c r="L24">
-        <v>1.005326938763459</v>
+        <v>1.00815058059674</v>
       </c>
       <c r="M24">
-        <v>1.023883987452793</v>
+        <v>1.02666665779717</v>
       </c>
       <c r="N24">
-        <v>1.0113519276292</v>
+        <v>1.014020626680175</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9942646544258198</v>
+        <v>0.9929157718673294</v>
       </c>
       <c r="D25">
-        <v>1.017383357424533</v>
+        <v>1.016837310482593</v>
       </c>
       <c r="E25">
-        <v>1.001465620155537</v>
+        <v>1.000708798180207</v>
       </c>
       <c r="F25">
-        <v>1.020662719408199</v>
+        <v>1.020106427834874</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04290799786951</v>
+        <v>1.043037035513828</v>
       </c>
       <c r="J25">
-        <v>1.018986589550712</v>
+        <v>1.017683923426677</v>
       </c>
       <c r="K25">
-        <v>1.029717682062747</v>
+        <v>1.029179753023507</v>
       </c>
       <c r="L25">
-        <v>1.014041226784814</v>
+        <v>1.013296120925702</v>
       </c>
       <c r="M25">
-        <v>1.032948522924419</v>
+        <v>1.032400434276892</v>
       </c>
       <c r="N25">
-        <v>1.02043366738727</v>
+        <v>1.01912915132792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9993960869402535</v>
+        <v>0.9984890205663438</v>
       </c>
       <c r="D2">
-        <v>1.021693496542823</v>
+        <v>1.022807866174081</v>
       </c>
       <c r="E2">
-        <v>1.005871098334296</v>
+        <v>1.005160346355098</v>
       </c>
       <c r="F2">
-        <v>1.025686975542922</v>
+        <v>1.026357283514473</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044593954649923</v>
+        <v>1.04513603292856</v>
       </c>
       <c r="J2">
-        <v>1.021594875958779</v>
+        <v>1.020715018882561</v>
       </c>
       <c r="K2">
-        <v>1.032858658187178</v>
+        <v>1.033958339081332</v>
       </c>
       <c r="L2">
-        <v>1.017249240955445</v>
+        <v>1.016548254472799</v>
       </c>
       <c r="M2">
-        <v>1.0367996834352</v>
+        <v>1.037461237125617</v>
       </c>
       <c r="N2">
-        <v>1.02304565786121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010824371395925</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035081720451122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003966365044534</v>
+        <v>1.002102795556103</v>
       </c>
       <c r="D3">
-        <v>1.025124037227343</v>
+        <v>1.025234153597235</v>
       </c>
       <c r="E3">
-        <v>1.009525844212664</v>
+        <v>1.007980130972122</v>
       </c>
       <c r="F3">
-        <v>1.029632648336269</v>
+        <v>1.029346551310263</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045670445369178</v>
+        <v>1.045768904063663</v>
       </c>
       <c r="J3">
-        <v>1.024349483868611</v>
+        <v>1.022536299927746</v>
       </c>
       <c r="K3">
-        <v>1.035445234913349</v>
+        <v>1.035554026944003</v>
       </c>
       <c r="L3">
-        <v>1.020038273892084</v>
+        <v>1.018511912721284</v>
       </c>
       <c r="M3">
-        <v>1.039899909349153</v>
+        <v>1.039617217507185</v>
       </c>
       <c r="N3">
-        <v>1.025804177630233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011441018098998</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036207343783347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006864763949407</v>
+        <v>1.004403187243141</v>
       </c>
       <c r="D4">
-        <v>1.027301844048682</v>
+        <v>1.026782218665734</v>
       </c>
       <c r="E4">
-        <v>1.011849777740558</v>
+        <v>1.009781173989376</v>
       </c>
       <c r="F4">
-        <v>1.032139146051349</v>
+        <v>1.031254232932773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046342881536231</v>
+        <v>1.046162791688491</v>
       </c>
       <c r="J4">
-        <v>1.026094483658939</v>
+        <v>1.023694925773567</v>
       </c>
       <c r="K4">
-        <v>1.037081558733306</v>
+        <v>1.036567804177899</v>
       </c>
       <c r="L4">
-        <v>1.021807259552866</v>
+        <v>1.019762965005439</v>
       </c>
       <c r="M4">
-        <v>1.041864557091238</v>
+        <v>1.040989531157117</v>
       </c>
       <c r="N4">
-        <v>1.027551655520417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01183319189417</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036925077154105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008069657641959</v>
+        <v>1.005364262793896</v>
       </c>
       <c r="D5">
-        <v>1.028207651099559</v>
+        <v>1.027431762835</v>
       </c>
       <c r="E5">
-        <v>1.012817289696424</v>
+        <v>1.010535371770563</v>
       </c>
       <c r="F5">
-        <v>1.03318207756338</v>
+        <v>1.032053511111009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046619916281889</v>
+        <v>1.046326510132285</v>
       </c>
       <c r="J5">
-        <v>1.026819397780015</v>
+        <v>1.024180114447333</v>
       </c>
       <c r="K5">
-        <v>1.037760775491621</v>
+        <v>1.036993419009793</v>
       </c>
       <c r="L5">
-        <v>1.022542659819818</v>
+        <v>1.020286831772048</v>
       </c>
       <c r="M5">
-        <v>1.042680875974508</v>
+        <v>1.041564578291973</v>
       </c>
       <c r="N5">
-        <v>1.028277599102694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011997604483782</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037233222431552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008271181618674</v>
+        <v>1.005528548222019</v>
       </c>
       <c r="D6">
-        <v>1.028359177438467</v>
+        <v>1.027545223758105</v>
       </c>
       <c r="E6">
-        <v>1.012979193194848</v>
+        <v>1.010664760283378</v>
       </c>
       <c r="F6">
-        <v>1.033356567182445</v>
+        <v>1.03219160181494</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046666103208438</v>
+        <v>1.046356004959316</v>
       </c>
       <c r="J6">
-        <v>1.02694061253896</v>
+        <v>1.024264654014167</v>
       </c>
       <c r="K6">
-        <v>1.037874316249116</v>
+        <v>1.037069271796493</v>
       </c>
       <c r="L6">
-        <v>1.022665658655475</v>
+        <v>1.020377564273806</v>
       </c>
       <c r="M6">
-        <v>1.042817383719886</v>
+        <v>1.041665024004263</v>
       </c>
       <c r="N6">
-        <v>1.0283989860005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012026510672689</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037295633905248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006880916562881</v>
+        <v>1.004425278445574</v>
       </c>
       <c r="D7">
-        <v>1.027313985372185</v>
+        <v>1.026803515002459</v>
       </c>
       <c r="E7">
-        <v>1.011862742466567</v>
+        <v>1.00979953924069</v>
       </c>
       <c r="F7">
-        <v>1.032153123725271</v>
+        <v>1.031276339530805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046346605365042</v>
+        <v>1.04617095786112</v>
       </c>
       <c r="J7">
-        <v>1.026104203765047</v>
+        <v>1.023710409054775</v>
       </c>
       <c r="K7">
-        <v>1.037090668296843</v>
+        <v>1.036585963163671</v>
       </c>
       <c r="L7">
-        <v>1.021817118202833</v>
+        <v>1.019778151659807</v>
       </c>
       <c r="M7">
-        <v>1.041875502201012</v>
+        <v>1.041008510679536</v>
       </c>
       <c r="N7">
-        <v>1.02756138943019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01183914882851</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036958105373705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000953134866417</v>
+        <v>0.9997298516600619</v>
       </c>
       <c r="D8">
-        <v>1.022861746516708</v>
+        <v>1.023648052154304</v>
       </c>
       <c r="E8">
-        <v>1.007114915229463</v>
+        <v>1.006128616854941</v>
       </c>
       <c r="F8">
-        <v>1.027030308530251</v>
+        <v>1.027387283898839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044962828136745</v>
+        <v>1.045360586037196</v>
       </c>
       <c r="J8">
-        <v>1.022533724790159</v>
+        <v>1.021345893249345</v>
       </c>
       <c r="K8">
-        <v>1.033740695653415</v>
+        <v>1.034516946893946</v>
       </c>
       <c r="L8">
-        <v>1.018199365309604</v>
+        <v>1.017226207184339</v>
       </c>
       <c r="M8">
-        <v>1.037856173912342</v>
+        <v>1.038208628442392</v>
       </c>
       <c r="N8">
-        <v>1.023985839965619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011038925659144</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035499714328669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9900328276410613</v>
+        <v>0.9911379516289277</v>
       </c>
       <c r="D9">
-        <v>1.014680208913579</v>
+        <v>1.017894183175265</v>
       </c>
       <c r="E9">
-        <v>0.9984195399378047</v>
+        <v>0.9994592171744409</v>
       </c>
       <c r="F9">
-        <v>1.017629168128424</v>
+        <v>1.020305023731153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042334037459033</v>
+        <v>1.043801399522186</v>
       </c>
       <c r="J9">
-        <v>1.01594252951284</v>
+        <v>1.017007580247916</v>
       </c>
       <c r="K9">
-        <v>1.027539516830986</v>
+        <v>1.03070346093389</v>
       </c>
       <c r="L9">
-        <v>1.011538311153704</v>
+        <v>1.012561074300123</v>
       </c>
       <c r="M9">
-        <v>1.030442555955858</v>
+        <v>1.033077037400768</v>
       </c>
       <c r="N9">
-        <v>1.017385284434986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009568709129936</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032800110087595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9823978567713051</v>
+        <v>0.9851910587731546</v>
       </c>
       <c r="D10">
-        <v>1.00897822607727</v>
+        <v>1.01393714665554</v>
       </c>
       <c r="E10">
-        <v>0.9923782102164331</v>
+        <v>0.994879244730588</v>
       </c>
       <c r="F10">
-        <v>1.011084936214691</v>
+        <v>1.015434253222906</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040445118907523</v>
+        <v>1.042679006542045</v>
       </c>
       <c r="J10">
-        <v>1.011327683689856</v>
+        <v>1.014004803626346</v>
       </c>
       <c r="K10">
-        <v>1.02318724620063</v>
+        <v>1.028059240027197</v>
       </c>
       <c r="L10">
-        <v>1.006886455670684</v>
+        <v>1.009341575636879</v>
       </c>
       <c r="M10">
-        <v>1.025256892045612</v>
+        <v>1.029530319195483</v>
       </c>
       <c r="N10">
-        <v>1.012763885001602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008551033006483</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030947366517048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9789990731065994</v>
+        <v>0.9825708910474096</v>
       </c>
       <c r="D11">
-        <v>1.006445257958897</v>
+        <v>1.01220752671459</v>
       </c>
       <c r="E11">
-        <v>0.9896986982471968</v>
+        <v>0.9928719280100431</v>
       </c>
       <c r="F11">
-        <v>1.008179463835093</v>
+        <v>1.013300519736741</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039592817748535</v>
+        <v>1.042179588683862</v>
       </c>
       <c r="J11">
-        <v>1.009272386537597</v>
+        <v>1.012687156730744</v>
       </c>
       <c r="K11">
-        <v>1.021246641205735</v>
+        <v>1.026902841365111</v>
       </c>
       <c r="L11">
-        <v>1.004817532348926</v>
+        <v>1.00792953301875</v>
       </c>
       <c r="M11">
-        <v>1.022948758559248</v>
+        <v>1.027975892325833</v>
       </c>
       <c r="N11">
-        <v>1.010705669091641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008105518168099</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030162781075351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9777218795479811</v>
+        <v>0.9815822071779442</v>
       </c>
       <c r="D12">
-        <v>1.005494311714165</v>
+        <v>1.011551589079962</v>
       </c>
       <c r="E12">
-        <v>0.9886933450627381</v>
+        <v>0.9921150319119769</v>
       </c>
       <c r="F12">
-        <v>1.007088899763342</v>
+        <v>1.012494056143011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039270882216513</v>
+        <v>1.041986790448339</v>
       </c>
       <c r="J12">
-        <v>1.008499959320819</v>
+        <v>1.012187025147757</v>
       </c>
       <c r="K12">
-        <v>1.02051700100572</v>
+        <v>1.026460775411244</v>
       </c>
       <c r="L12">
-        <v>1.004040416626312</v>
+        <v>1.007394870791313</v>
       </c>
       <c r="M12">
-        <v>1.022081536271553</v>
+        <v>1.027385741477481</v>
       </c>
       <c r="N12">
-        <v>1.009932144939616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007935818205016</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029850222247745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9779965220026564</v>
+        <v>0.981793406122608</v>
       </c>
       <c r="D13">
-        <v>1.005698757493427</v>
+        <v>1.011690829261332</v>
       </c>
       <c r="E13">
-        <v>0.9889094607036613</v>
+        <v>0.9922764797413908</v>
       </c>
       <c r="F13">
-        <v>1.007323352101475</v>
+        <v>1.012665775563063</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039340183851251</v>
+        <v>1.042027482331408</v>
       </c>
       <c r="J13">
-        <v>1.008666061988012</v>
+        <v>1.012293279240249</v>
       </c>
       <c r="K13">
-        <v>1.020673916726543</v>
+        <v>1.026554133613281</v>
       </c>
       <c r="L13">
-        <v>1.004207507909885</v>
+        <v>1.007508624427865</v>
       </c>
       <c r="M13">
-        <v>1.022268013120903</v>
+        <v>1.027511043660714</v>
       </c>
       <c r="N13">
-        <v>1.010098483491649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007971753489619</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029913720495852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9788938052431718</v>
+        <v>0.982488801338839</v>
       </c>
       <c r="D14">
-        <v>1.006366861137428</v>
+        <v>1.012152687899919</v>
       </c>
       <c r="E14">
-        <v>0.9896158038032822</v>
+        <v>0.9928089807118329</v>
       </c>
       <c r="F14">
-        <v>1.008089552209417</v>
+        <v>1.013233321372868</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039566316779932</v>
+        <v>1.042163371771624</v>
       </c>
       <c r="J14">
-        <v>1.009208723611054</v>
+        <v>1.01264538247386</v>
       </c>
       <c r="K14">
-        <v>1.021186511072292</v>
+        <v>1.026865677806935</v>
       </c>
       <c r="L14">
-        <v>1.004753474187141</v>
+        <v>1.007884944115124</v>
       </c>
       <c r="M14">
-        <v>1.022877277973791</v>
+        <v>1.027926565839692</v>
       </c>
       <c r="N14">
-        <v>1.010641915756441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008091293613983</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030135429742147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9794446739900433</v>
+        <v>0.9829186116904789</v>
       </c>
       <c r="D15">
-        <v>1.006777150100514</v>
+        <v>1.012439944275996</v>
       </c>
       <c r="E15">
-        <v>0.990049655757159</v>
+        <v>0.9931386393337091</v>
       </c>
       <c r="F15">
-        <v>1.008560113085266</v>
+        <v>1.013585265219333</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039704929625153</v>
+        <v>1.042248278915352</v>
       </c>
       <c r="J15">
-        <v>1.009541869650754</v>
+        <v>1.012864168084362</v>
       </c>
       <c r="K15">
-        <v>1.021501157330777</v>
+        <v>1.027060367563388</v>
       </c>
       <c r="L15">
-        <v>1.005088706130696</v>
+        <v>1.008118466867736</v>
       </c>
       <c r="M15">
-        <v>1.023251342915668</v>
+        <v>1.028184921276813</v>
       </c>
       <c r="N15">
-        <v>1.010975534901729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008165803576192</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030278994983871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9826214014154091</v>
+        <v>0.9853856897570215</v>
       </c>
       <c r="D16">
-        <v>1.009144942928673</v>
+        <v>1.01408020285424</v>
       </c>
       <c r="E16">
-        <v>0.9925546582327817</v>
+        <v>0.9950314796389728</v>
       </c>
       <c r="F16">
-        <v>1.011276203751755</v>
+        <v>1.015601540647326</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040500943188615</v>
+        <v>1.042725578784084</v>
       </c>
       <c r="J16">
-        <v>1.011462849307587</v>
+        <v>1.014112695888008</v>
       </c>
       <c r="K16">
-        <v>1.023314824034528</v>
+        <v>1.028163859706311</v>
       </c>
       <c r="L16">
-        <v>1.007022577195283</v>
+        <v>1.009454082044754</v>
       </c>
       <c r="M16">
-        <v>1.025408715726212</v>
+        <v>1.02965883670551</v>
       </c>
       <c r="N16">
-        <v>1.012899242570014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00858950843563</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031062400290464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9845886932107506</v>
+        <v>0.9869175539457283</v>
       </c>
       <c r="D17">
-        <v>1.010612742064027</v>
+        <v>1.015100314701721</v>
       </c>
       <c r="E17">
-        <v>0.9941086083767645</v>
+        <v>0.9962092007597305</v>
       </c>
       <c r="F17">
-        <v>1.012960336114626</v>
+        <v>1.016855561886047</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040990927256256</v>
+        <v>1.043019262628028</v>
       </c>
       <c r="J17">
-        <v>1.012652264531553</v>
+        <v>1.014887923273698</v>
       </c>
       <c r="K17">
-        <v>1.024437215528344</v>
+        <v>1.028848661477949</v>
       </c>
       <c r="L17">
-        <v>1.008220729619001</v>
+        <v>1.010284024497479</v>
       </c>
       <c r="M17">
-        <v>1.026744876656467</v>
+        <v>1.030574368534311</v>
       </c>
       <c r="N17">
-        <v>1.014090346900026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008852568304003</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031549189346487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9857272847084854</v>
+        <v>0.9877988001819024</v>
       </c>
       <c r="D18">
-        <v>1.01146274602556</v>
+        <v>1.015683299269478</v>
       </c>
       <c r="E18">
-        <v>0.9950089033132817</v>
+        <v>0.9968866877868375</v>
       </c>
       <c r="F18">
-        <v>1.013935776248135</v>
+        <v>1.017575056197607</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041273422097313</v>
+        <v>1.04318425433959</v>
       </c>
       <c r="J18">
-        <v>1.013340557406754</v>
+        <v>1.015330812987368</v>
       </c>
       <c r="K18">
-        <v>1.02508650808379</v>
+        <v>1.029236700536665</v>
       </c>
       <c r="L18">
-        <v>1.008914349353589</v>
+        <v>1.010759378324254</v>
       </c>
       <c r="M18">
-        <v>1.027518218923227</v>
+        <v>1.031097163766623</v>
       </c>
       <c r="N18">
-        <v>1.014779617230058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009002247173048</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031811838693108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1232,93 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9861140291597675</v>
+        <v>0.9881035698347517</v>
       </c>
       <c r="D19">
-        <v>1.011751548225256</v>
+        <v>1.015888457216164</v>
       </c>
       <c r="E19">
-        <v>0.9953148612914734</v>
+        <v>0.9971218145984448</v>
       </c>
       <c r="F19">
-        <v>1.01426722453912</v>
+        <v>1.017826057104837</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04136919048622</v>
+        <v>1.043243469998678</v>
       </c>
       <c r="J19">
-        <v>1.013574331741128</v>
+        <v>1.015486363101378</v>
       </c>
       <c r="K19">
-        <v>1.02530699913398</v>
+        <v>1.029375353640028</v>
       </c>
       <c r="L19">
-        <v>1.009149978764256</v>
+        <v>1.010925603606758</v>
       </c>
       <c r="M19">
-        <v>1.02778090133014</v>
+        <v>1.031281091143109</v>
       </c>
       <c r="N19">
-        <v>1.015013723550802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009055284298897</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031916304236086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9843785471826961</v>
+        <v>0.9867532486010357</v>
       </c>
       <c r="D20">
-        <v>1.01045589938979</v>
+        <v>1.014990495678061</v>
       </c>
       <c r="E20">
-        <v>0.9939425185546265</v>
+        <v>0.9960827226311634</v>
       </c>
       <c r="F20">
-        <v>1.012780360798517</v>
+        <v>1.016720776934313</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040938699719601</v>
+        <v>1.042987632384327</v>
       </c>
       <c r="J20">
-        <v>1.012525220629408</v>
+        <v>1.014804536674002</v>
       </c>
       <c r="K20">
-        <v>1.024317352718944</v>
+        <v>1.028774779086486</v>
       </c>
       <c r="L20">
-        <v>1.008092724360035</v>
+        <v>1.010194804152396</v>
       </c>
       <c r="M20">
-        <v>1.026602144893789</v>
+        <v>1.030475848375996</v>
       </c>
       <c r="N20">
-        <v>1.013963122580968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00882422660311</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031495607489539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9786299910768268</v>
+        <v>0.9822915229697248</v>
       </c>
       <c r="D21">
-        <v>1.006170403775124</v>
+        <v>1.012026315949101</v>
       </c>
       <c r="E21">
-        <v>0.98940808543824</v>
+        <v>0.9926588463861548</v>
       </c>
       <c r="F21">
-        <v>1.007864243150903</v>
+        <v>1.01307507675946</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039499875599545</v>
+        <v>1.042128002256593</v>
       </c>
       <c r="J21">
-        <v>1.009049175280446</v>
+        <v>1.01254875081492</v>
       </c>
       <c r="K21">
-        <v>1.021035811391323</v>
+        <v>1.026783372774715</v>
       </c>
       <c r="L21">
-        <v>1.004592942320285</v>
+        <v>1.007780646802065</v>
       </c>
       <c r="M21">
-        <v>1.0226981411936</v>
+        <v>1.027812900791535</v>
       </c>
       <c r="N21">
-        <v>1.010482140848902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008059148539705</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030090840488542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9749299645786113</v>
+        <v>0.9794247160929015</v>
       </c>
       <c r="D22">
-        <v>1.003417309610484</v>
+        <v>1.010121490560287</v>
       </c>
       <c r="E22">
-        <v>0.9864986062820368</v>
+        <v>0.9904658562086721</v>
       </c>
       <c r="F22">
-        <v>1.004707357589584</v>
+        <v>1.010736160404082</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038564157369787</v>
+        <v>1.041562989461526</v>
       </c>
       <c r="J22">
-        <v>1.006811351547059</v>
+        <v>1.0110953162616</v>
       </c>
       <c r="K22">
-        <v>1.018921371548891</v>
+        <v>1.025495070444297</v>
       </c>
       <c r="L22">
-        <v>1.002342358616599</v>
+        <v>1.006228582324137</v>
       </c>
       <c r="M22">
-        <v>1.020186134066838</v>
+        <v>1.026097890554928</v>
       </c>
       <c r="N22">
-        <v>1.008241139149131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007565292979016</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029166351621486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.976899820095174</v>
+        <v>0.98094089611266</v>
       </c>
       <c r="D23">
-        <v>1.004882502773411</v>
+        <v>1.011122756560596</v>
       </c>
       <c r="E23">
-        <v>0.9880467013993265</v>
+        <v>0.9916237135353811</v>
       </c>
       <c r="F23">
-        <v>1.006387327960916</v>
+        <v>1.011969117565823</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039063210353678</v>
+        <v>1.041858870483488</v>
       </c>
       <c r="J23">
-        <v>1.008002772404027</v>
+        <v>1.011860085638373</v>
       </c>
       <c r="K23">
-        <v>1.020047268155763</v>
+        <v>1.026169259143771</v>
       </c>
       <c r="L23">
-        <v>1.003540334193215</v>
+        <v>1.007046246228367</v>
       </c>
       <c r="M23">
-        <v>1.021523398981175</v>
+        <v>1.026999726920033</v>
       </c>
       <c r="N23">
-        <v>1.009434251960375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007824362603716</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02963333914296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9844735305621842</v>
+        <v>0.9868133047425002</v>
       </c>
       <c r="D24">
-        <v>1.010526788778166</v>
+        <v>1.01502136087884</v>
       </c>
       <c r="E24">
-        <v>0.9940175862033634</v>
+        <v>0.9961271040890878</v>
       </c>
       <c r="F24">
-        <v>1.012861705135669</v>
+        <v>1.016764518177297</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040962309293819</v>
+        <v>1.042992944471993</v>
       </c>
       <c r="J24">
-        <v>1.012582643182004</v>
+        <v>1.014828588386785</v>
       </c>
       <c r="K24">
-        <v>1.024371530158556</v>
+        <v>1.028789721652092</v>
       </c>
       <c r="L24">
-        <v>1.00815058059674</v>
+        <v>1.010222575199398</v>
       </c>
       <c r="M24">
-        <v>1.02666665779717</v>
+        <v>1.030503490155466</v>
       </c>
       <c r="N24">
-        <v>1.014020626680175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008831143726335</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031478605782342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9929157718673294</v>
+        <v>0.9934116647947934</v>
       </c>
       <c r="D25">
-        <v>1.016837310482593</v>
+        <v>1.01942284524088</v>
       </c>
       <c r="E25">
-        <v>1.000708798180207</v>
+        <v>1.001219945298573</v>
       </c>
       <c r="F25">
-        <v>1.020106427834874</v>
+        <v>1.022180067846747</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043037035513828</v>
+        <v>1.044228627067395</v>
       </c>
       <c r="J25">
-        <v>1.017683923426677</v>
+        <v>1.018162805340241</v>
       </c>
       <c r="K25">
-        <v>1.029179753023507</v>
+        <v>1.031726947184017</v>
       </c>
       <c r="L25">
-        <v>1.013296120925702</v>
+        <v>1.01379935266091</v>
       </c>
       <c r="M25">
-        <v>1.032400434276892</v>
+        <v>1.034443554576818</v>
       </c>
       <c r="N25">
-        <v>1.01912915132792</v>
+        <v>1.009961535459357</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033552518557098</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9984890205663438</v>
+        <v>0.9985872532882748</v>
       </c>
       <c r="D2">
-        <v>1.022807866174081</v>
+        <v>1.022516262580871</v>
       </c>
       <c r="E2">
-        <v>1.005160346355098</v>
+        <v>1.00524989373822</v>
       </c>
       <c r="F2">
-        <v>1.026357283514473</v>
+        <v>1.026160699074225</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04513603292856</v>
+        <v>1.045020959534469</v>
       </c>
       <c r="J2">
-        <v>1.020715018882561</v>
+        <v>1.02081030163056</v>
       </c>
       <c r="K2">
-        <v>1.033958339081332</v>
+        <v>1.033670575297449</v>
       </c>
       <c r="L2">
-        <v>1.016548254472799</v>
+        <v>1.016636570546596</v>
       </c>
       <c r="M2">
-        <v>1.037461237125617</v>
+        <v>1.037267218610825</v>
       </c>
       <c r="N2">
-        <v>1.010824371395925</v>
+        <v>1.012727112030316</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035081720451122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034887059124243</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021048806295312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,93 +495,111 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002102795556103</v>
+        <v>1.002066045932168</v>
       </c>
       <c r="D3">
-        <v>1.025234153597235</v>
+        <v>1.024771254374934</v>
       </c>
       <c r="E3">
-        <v>1.007980130972122</v>
+        <v>1.007952257716375</v>
       </c>
       <c r="F3">
-        <v>1.029346551310263</v>
+        <v>1.028993545590877</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045768904063663</v>
+        <v>1.045578011816625</v>
       </c>
       <c r="J3">
-        <v>1.022536299927746</v>
+        <v>1.022500546472124</v>
       </c>
       <c r="K3">
-        <v>1.035554026944003</v>
+        <v>1.035096697261756</v>
       </c>
       <c r="L3">
-        <v>1.018511912721284</v>
+        <v>1.018484389113334</v>
       </c>
       <c r="M3">
-        <v>1.039617217507185</v>
+        <v>1.039268416567565</v>
       </c>
       <c r="N3">
-        <v>1.011441018098998</v>
+        <v>1.013182217645394</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036207343783347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035892506017171</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021330200044497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.004403187243141</v>
+        <v>1.004281432894692</v>
       </c>
       <c r="D4">
-        <v>1.026782218665734</v>
+        <v>1.026210867787758</v>
       </c>
       <c r="E4">
-        <v>1.009781173989376</v>
+        <v>1.009679242725737</v>
       </c>
       <c r="F4">
-        <v>1.031254232932773</v>
+        <v>1.030802384354561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046162791688491</v>
+        <v>1.045923842608906</v>
       </c>
       <c r="J4">
-        <v>1.023694925773567</v>
+        <v>1.023576249653271</v>
       </c>
       <c r="K4">
-        <v>1.036567804177899</v>
+        <v>1.036002916990623</v>
       </c>
       <c r="L4">
-        <v>1.019762965005439</v>
+        <v>1.019662234775589</v>
       </c>
       <c r="M4">
-        <v>1.040989531157117</v>
+        <v>1.040542739168293</v>
       </c>
       <c r="N4">
-        <v>1.01183319189417</v>
+        <v>1.013471808968646</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036925077154105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03653426751808</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021506708519323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005364262793896</v>
+        <v>1.005207210470475</v>
       </c>
       <c r="D5">
-        <v>1.027431762835</v>
+        <v>1.026815293141243</v>
       </c>
       <c r="E5">
-        <v>1.010535371770563</v>
+        <v>1.010402663358768</v>
       </c>
       <c r="F5">
-        <v>1.032053511111009</v>
+        <v>1.031560574906187</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046326510132285</v>
+        <v>1.046067550635096</v>
       </c>
       <c r="J5">
-        <v>1.024180114447333</v>
+        <v>1.024026914710005</v>
       </c>
       <c r="K5">
-        <v>1.036993419009793</v>
+        <v>1.036383739404253</v>
       </c>
       <c r="L5">
-        <v>1.020286831772048</v>
+        <v>1.020155645132538</v>
       </c>
       <c r="M5">
-        <v>1.041564578291973</v>
+        <v>1.04107701118893</v>
       </c>
       <c r="N5">
-        <v>1.011997604483782</v>
+        <v>1.013593290717694</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037233222431552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036811450301038</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021580717830613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005528548222019</v>
+        <v>1.005365481093976</v>
       </c>
       <c r="D6">
-        <v>1.027545223758105</v>
+        <v>1.026921114671545</v>
       </c>
       <c r="E6">
-        <v>1.010664760283378</v>
+        <v>1.010526804852874</v>
       </c>
       <c r="F6">
-        <v>1.03219160181494</v>
+        <v>1.031691699372561</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046356004959316</v>
+        <v>1.04609365015507</v>
       </c>
       <c r="J6">
-        <v>1.024264654014167</v>
+        <v>1.024105566548415</v>
       </c>
       <c r="K6">
-        <v>1.037069271796493</v>
+        <v>1.036452005720574</v>
       </c>
       <c r="L6">
-        <v>1.020377564273806</v>
+        <v>1.020241183493403</v>
       </c>
       <c r="M6">
-        <v>1.041665024004263</v>
+        <v>1.041170541525908</v>
       </c>
       <c r="N6">
-        <v>1.012026510672689</v>
+        <v>1.013614698411364</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037295633905248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036869365149985</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021594431015324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004425278445574</v>
+        <v>1.004310182134568</v>
       </c>
       <c r="D7">
-        <v>1.026803515002459</v>
+        <v>1.026236518638569</v>
       </c>
       <c r="E7">
-        <v>1.00979953924069</v>
+        <v>1.009703552604317</v>
       </c>
       <c r="F7">
-        <v>1.031276339530805</v>
+        <v>1.030829253797813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04617095786112</v>
+        <v>1.045934081694338</v>
       </c>
       <c r="J7">
-        <v>1.023710409054775</v>
+        <v>1.023598221378532</v>
       </c>
       <c r="K7">
-        <v>1.036585963163671</v>
+        <v>1.036025378725649</v>
       </c>
       <c r="L7">
-        <v>1.019778151659807</v>
+        <v>1.019683295574626</v>
       </c>
       <c r="M7">
-        <v>1.041008510679536</v>
+        <v>1.040566426275182</v>
       </c>
       <c r="N7">
-        <v>1.01183914882851</v>
+        <v>1.013504141375971</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036958105373705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036572334530325</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021512876124997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9997298516600619</v>
+        <v>0.9998045074368416</v>
       </c>
       <c r="D8">
-        <v>1.023648052154304</v>
+        <v>1.023313869988439</v>
       </c>
       <c r="E8">
-        <v>1.006128616854941</v>
+        <v>1.006198182303559</v>
       </c>
       <c r="F8">
-        <v>1.027387283898839</v>
+        <v>1.027154273393236</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045360586037196</v>
+        <v>1.045227173355435</v>
       </c>
       <c r="J8">
-        <v>1.021345893249345</v>
+        <v>1.021418382037774</v>
       </c>
       <c r="K8">
-        <v>1.034516946893946</v>
+        <v>1.034187035516565</v>
       </c>
       <c r="L8">
-        <v>1.017226207184339</v>
+        <v>1.017294844766594</v>
       </c>
       <c r="M8">
-        <v>1.038208628442392</v>
+        <v>1.037978568404145</v>
       </c>
       <c r="N8">
-        <v>1.011038925659144</v>
+        <v>1.012970164980276</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035499714328669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035277514176891</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021154317159831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9911379516289277</v>
+        <v>0.9915427593364153</v>
       </c>
       <c r="D9">
-        <v>1.017894183175265</v>
+        <v>1.017973235152702</v>
       </c>
       <c r="E9">
-        <v>0.9994592171744409</v>
+        <v>0.9998152727619382</v>
       </c>
       <c r="F9">
-        <v>1.020305023731153</v>
+        <v>1.020451049532213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043801399522186</v>
+        <v>1.043850673718864</v>
       </c>
       <c r="J9">
-        <v>1.017007580247916</v>
+        <v>1.017397740450392</v>
       </c>
       <c r="K9">
-        <v>1.03070346093389</v>
+        <v>1.030781287438353</v>
       </c>
       <c r="L9">
-        <v>1.012561074300123</v>
+        <v>1.012911347747803</v>
       </c>
       <c r="M9">
-        <v>1.033077037400768</v>
+        <v>1.033220813317326</v>
       </c>
       <c r="N9">
-        <v>1.009568709129936</v>
+        <v>1.011896256921135</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032800110087595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032865937279289</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020468246067421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9851910587731546</v>
+        <v>0.9858643438335366</v>
       </c>
       <c r="D10">
-        <v>1.01393714665554</v>
+        <v>1.014330105780187</v>
       </c>
       <c r="E10">
-        <v>0.994879244730588</v>
+        <v>0.9954681603212148</v>
       </c>
       <c r="F10">
-        <v>1.015434253222906</v>
+        <v>1.015873246537835</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042679006542045</v>
+        <v>1.042867521029719</v>
       </c>
       <c r="J10">
-        <v>1.014004803626346</v>
+        <v>1.014650247602243</v>
       </c>
       <c r="K10">
-        <v>1.028059240027197</v>
+        <v>1.028445357877363</v>
       </c>
       <c r="L10">
-        <v>1.009341575636879</v>
+        <v>1.00991972347215</v>
       </c>
       <c r="M10">
-        <v>1.029530319195483</v>
+        <v>1.029961699374221</v>
       </c>
       <c r="N10">
-        <v>1.008551033006483</v>
+        <v>1.011273150027486</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030947366517048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031232858739197</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019988529404094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9825708910474096</v>
+        <v>0.9834187471844998</v>
       </c>
       <c r="D11">
-        <v>1.01220752671459</v>
+        <v>1.012779253379255</v>
       </c>
       <c r="E11">
-        <v>0.9928719280100431</v>
+        <v>0.9936134795266903</v>
       </c>
       <c r="F11">
-        <v>1.013300519736741</v>
+        <v>1.013912152106486</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042179588683862</v>
+        <v>1.042448639762512</v>
       </c>
       <c r="J11">
-        <v>1.012687156730744</v>
+        <v>1.013497973162263</v>
       </c>
       <c r="K11">
-        <v>1.026902841365111</v>
+        <v>1.027464129677272</v>
       </c>
       <c r="L11">
-        <v>1.00792953301875</v>
+        <v>1.008656849717633</v>
       </c>
       <c r="M11">
-        <v>1.027975892325833</v>
+        <v>1.028576389649577</v>
       </c>
       <c r="N11">
-        <v>1.008105518168099</v>
+        <v>1.011192560743749</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030162781075351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.0305753434614</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019789451747952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9815822071779442</v>
+        <v>0.982501326237856</v>
       </c>
       <c r="D12">
-        <v>1.011551589079962</v>
+        <v>1.012194669599899</v>
       </c>
       <c r="E12">
-        <v>0.9921150319119769</v>
+        <v>0.9929190049259816</v>
       </c>
       <c r="F12">
-        <v>1.012494056143011</v>
+        <v>1.013175093229919</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041986790448339</v>
+        <v>1.042288150006311</v>
       </c>
       <c r="J12">
-        <v>1.012187025147757</v>
+        <v>1.013065178874006</v>
       </c>
       <c r="K12">
-        <v>1.026460775411244</v>
+        <v>1.027091909740093</v>
       </c>
       <c r="L12">
-        <v>1.007394870791313</v>
+        <v>1.00818313473413</v>
       </c>
       <c r="M12">
-        <v>1.027385741477481</v>
+        <v>1.028054158572414</v>
       </c>
       <c r="N12">
-        <v>1.007935818205016</v>
+        <v>1.011178026229228</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029850222247745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030312174505485</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01971309463403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.981793406122608</v>
+        <v>0.9826970584073393</v>
       </c>
       <c r="D13">
-        <v>1.011690829261332</v>
+        <v>1.012318468465854</v>
       </c>
       <c r="E13">
-        <v>0.9922764797413908</v>
+        <v>0.9930669027550942</v>
       </c>
       <c r="F13">
-        <v>1.012665775563063</v>
+        <v>1.013331777943285</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042027482331408</v>
+        <v>1.042321851831027</v>
       </c>
       <c r="J13">
-        <v>1.012293279240249</v>
+        <v>1.013156827391372</v>
       </c>
       <c r="K13">
-        <v>1.026554133613281</v>
+        <v>1.027170156461758</v>
       </c>
       <c r="L13">
-        <v>1.007508624427865</v>
+        <v>1.00828366144569</v>
       </c>
       <c r="M13">
-        <v>1.027511043660714</v>
+        <v>1.0281647511717</v>
       </c>
       <c r="N13">
-        <v>1.007971753489619</v>
+        <v>1.011180050676814</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029913720495852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030364745207825</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.0197289852867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.982488801338839</v>
+        <v>0.9833424620874653</v>
       </c>
       <c r="D14">
-        <v>1.012152687899919</v>
+        <v>1.012730248140567</v>
       </c>
       <c r="E14">
-        <v>0.9928089807118329</v>
+        <v>0.9935556155793498</v>
       </c>
       <c r="F14">
-        <v>1.013233321372868</v>
+        <v>1.013850620867278</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042163371771624</v>
+        <v>1.042435064678323</v>
       </c>
       <c r="J14">
-        <v>1.01264538247386</v>
+        <v>1.013461687783312</v>
       </c>
       <c r="K14">
-        <v>1.026865677806935</v>
+        <v>1.027432677985886</v>
       </c>
       <c r="L14">
-        <v>1.007884944115124</v>
+        <v>1.008617225444981</v>
       </c>
       <c r="M14">
-        <v>1.027926565839692</v>
+        <v>1.028532610561094</v>
       </c>
       <c r="N14">
-        <v>1.008091293613983</v>
+        <v>1.011190866211664</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030135429742147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03055192749448</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019782930920839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9829186116904789</v>
+        <v>0.9837420976810383</v>
       </c>
       <c r="D15">
-        <v>1.012439944275996</v>
+        <v>1.012987124308725</v>
       </c>
       <c r="E15">
-        <v>0.9931386393337091</v>
+        <v>0.9938588529317528</v>
       </c>
       <c r="F15">
-        <v>1.013585265219333</v>
+        <v>1.014173069007904</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042248278915352</v>
+        <v>1.042506218456021</v>
       </c>
       <c r="J15">
-        <v>1.012864168084362</v>
+        <v>1.013651932622158</v>
       </c>
       <c r="K15">
-        <v>1.027060367563388</v>
+        <v>1.027597618378351</v>
       </c>
       <c r="L15">
-        <v>1.008118466867736</v>
+        <v>1.008824941563338</v>
       </c>
       <c r="M15">
-        <v>1.028184921276813</v>
+        <v>1.028762090551033</v>
       </c>
       <c r="N15">
-        <v>1.008165803576192</v>
+        <v>1.011200464541513</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030278994983871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030675025883917</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019817143511054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9853856897570215</v>
+        <v>0.9860472154092381</v>
       </c>
       <c r="D16">
-        <v>1.01408020285424</v>
+        <v>1.014461060098934</v>
       </c>
       <c r="E16">
-        <v>0.9950314796389728</v>
+        <v>0.9956101003854974</v>
       </c>
       <c r="F16">
-        <v>1.015601540647326</v>
+        <v>1.016028855478631</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042725578784084</v>
+        <v>1.042908558475292</v>
       </c>
       <c r="J16">
-        <v>1.014112695888008</v>
+        <v>1.014746969499547</v>
       </c>
       <c r="K16">
-        <v>1.028163859706311</v>
+        <v>1.028538108092919</v>
       </c>
       <c r="L16">
-        <v>1.009454082044754</v>
+        <v>1.010022158478</v>
       </c>
       <c r="M16">
-        <v>1.02965883670551</v>
+        <v>1.030078765660154</v>
       </c>
       <c r="N16">
-        <v>1.00858950843563</v>
+        <v>1.011288169845937</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031062400290464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031343476092929</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020010194120966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9869175539457283</v>
+        <v>0.9874897989247901</v>
       </c>
       <c r="D17">
-        <v>1.015100314701721</v>
+        <v>1.015386064657841</v>
       </c>
       <c r="E17">
-        <v>0.9962092007597305</v>
+        <v>0.996709943139209</v>
       </c>
       <c r="F17">
-        <v>1.016855561886047</v>
+        <v>1.017192053807199</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043019262628028</v>
+        <v>1.043159601984543</v>
       </c>
       <c r="J17">
-        <v>1.014887923273698</v>
+        <v>1.015437362046645</v>
       </c>
       <c r="K17">
-        <v>1.028848661477949</v>
+        <v>1.029129593396282</v>
       </c>
       <c r="L17">
-        <v>1.010284024497479</v>
+        <v>1.010775905937925</v>
       </c>
       <c r="M17">
-        <v>1.030574368534311</v>
+        <v>1.030905212440126</v>
       </c>
       <c r="N17">
-        <v>1.008852568304003</v>
+        <v>1.011379855466848</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031549189346487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031764530113078</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020131636025607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9877988001819024</v>
+        <v>0.9883240455623817</v>
       </c>
       <c r="D18">
-        <v>1.015683299269478</v>
+        <v>1.015917363260996</v>
       </c>
       <c r="E18">
-        <v>0.9968866877868375</v>
+        <v>0.9973465090062772</v>
       </c>
       <c r="F18">
-        <v>1.017575056197607</v>
+        <v>1.017862606449664</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04318425433959</v>
+        <v>1.043301532969722</v>
       </c>
       <c r="J18">
-        <v>1.015330812987368</v>
+        <v>1.015835530945624</v>
       </c>
       <c r="K18">
-        <v>1.029236700536665</v>
+        <v>1.029466884476838</v>
       </c>
       <c r="L18">
-        <v>1.010759378324254</v>
+        <v>1.011211202896358</v>
       </c>
       <c r="M18">
-        <v>1.031097163766623</v>
+        <v>1.031379970427082</v>
       </c>
       <c r="N18">
-        <v>1.009002247173048</v>
+        <v>1.011445703080654</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031811838693108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031990162487309</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020200052568364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9881035698347517</v>
+        <v>0.9886133572182995</v>
       </c>
       <c r="D19">
-        <v>1.015888457216164</v>
+        <v>1.016105285952999</v>
       </c>
       <c r="E19">
-        <v>0.9971218145984448</v>
+        <v>0.9975681844432892</v>
       </c>
       <c r="F19">
-        <v>1.017826057104837</v>
+        <v>1.018097341487913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043243469998678</v>
+        <v>1.043353052647893</v>
       </c>
       <c r="J19">
-        <v>1.015486363101378</v>
+        <v>1.01597636090925</v>
       </c>
       <c r="K19">
-        <v>1.029375353640028</v>
+        <v>1.029588609021831</v>
       </c>
       <c r="L19">
-        <v>1.010925603606758</v>
+        <v>1.011364257024902</v>
       </c>
       <c r="M19">
-        <v>1.031281091143109</v>
+        <v>1.031547926901246</v>
       </c>
       <c r="N19">
-        <v>1.009055284298897</v>
+        <v>1.011472350176738</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031916304236086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032083279198354</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020225424791358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9867532486010357</v>
+        <v>0.9873346132541877</v>
       </c>
       <c r="D20">
-        <v>1.014990495678061</v>
+        <v>1.015286112373427</v>
       </c>
       <c r="E20">
-        <v>0.9960827226311634</v>
+        <v>0.9965914133307514</v>
       </c>
       <c r="F20">
-        <v>1.016720776934313</v>
+        <v>1.017066652345896</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042987632384327</v>
+        <v>1.043132388748859</v>
       </c>
       <c r="J20">
-        <v>1.014804536674002</v>
+        <v>1.015362648515743</v>
       </c>
       <c r="K20">
-        <v>1.028774779086486</v>
+        <v>1.029065395848994</v>
       </c>
       <c r="L20">
-        <v>1.010194804152396</v>
+        <v>1.01069446459675</v>
       </c>
       <c r="M20">
-        <v>1.030475848375996</v>
+        <v>1.030815899819794</v>
       </c>
       <c r="N20">
-        <v>1.00882422660311</v>
+        <v>1.01136837669065</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031495607489539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031717667013683</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020118386768012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9822915229697248</v>
+        <v>0.9831781299425969</v>
       </c>
       <c r="D21">
-        <v>1.012026315949101</v>
+        <v>1.012631718652941</v>
       </c>
       <c r="E21">
-        <v>0.9926588463861548</v>
+        <v>0.9934347157865338</v>
       </c>
       <c r="F21">
-        <v>1.01307507675946</v>
+        <v>1.013720779556044</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I21">
-        <v>1.042128002256593</v>
+        <v>1.042412631475711</v>
       </c>
       <c r="J21">
-        <v>1.01254875081492</v>
+        <v>1.013396400789545</v>
       </c>
       <c r="K21">
-        <v>1.026783372774715</v>
+        <v>1.027377666916521</v>
       </c>
       <c r="L21">
-        <v>1.007780646802065</v>
+        <v>1.00854154621605</v>
       </c>
       <c r="M21">
-        <v>1.027812900791535</v>
+        <v>1.028446788079316</v>
       </c>
       <c r="N21">
-        <v>1.008059148539705</v>
+        <v>1.011255706746431</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030090840488542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030527946314601</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019773815009169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9794247160929015</v>
+        <v>0.9805072973868527</v>
       </c>
       <c r="D22">
-        <v>1.010121490560287</v>
+        <v>1.010926371902095</v>
       </c>
       <c r="E22">
-        <v>0.9904658562086721</v>
+        <v>0.9914132122671157</v>
       </c>
       <c r="F22">
-        <v>1.010736160404082</v>
+        <v>1.011575278725027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041562989461526</v>
+        <v>1.041937859711272</v>
       </c>
       <c r="J22">
-        <v>1.0110953162616</v>
+        <v>1.012127543463184</v>
       </c>
       <c r="K22">
-        <v>1.025495070444297</v>
+        <v>1.026284438939741</v>
       </c>
       <c r="L22">
-        <v>1.006228582324137</v>
+        <v>1.007156716143499</v>
       </c>
       <c r="M22">
-        <v>1.026097890554928</v>
+        <v>1.026920862619966</v>
       </c>
       <c r="N22">
-        <v>1.007565292979016</v>
+        <v>1.011170881085652</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029166351621486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029740091410751</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019547254542907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.98094089611266</v>
+        <v>0.9819074529861196</v>
       </c>
       <c r="D23">
-        <v>1.011122756560596</v>
+        <v>1.011812974967364</v>
       </c>
       <c r="E23">
-        <v>0.9916237135353811</v>
+        <v>0.9924692804635475</v>
       </c>
       <c r="F23">
-        <v>1.011969117565823</v>
+        <v>1.012696132820551</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041858870483488</v>
+        <v>1.042181644956391</v>
       </c>
       <c r="J23">
-        <v>1.011860085638373</v>
+        <v>1.012783010724497</v>
       </c>
       <c r="K23">
-        <v>1.026169259143771</v>
+        <v>1.026846513803756</v>
       </c>
       <c r="L23">
-        <v>1.007046246228367</v>
+        <v>1.007875104228157</v>
       </c>
       <c r="M23">
-        <v>1.026999726920033</v>
+        <v>1.027713117747431</v>
       </c>
       <c r="N23">
-        <v>1.007824362603716</v>
+        <v>1.011171060638539</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02963333914296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030126866256322</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019662036505611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9868133047425002</v>
+        <v>0.9873912376835235</v>
       </c>
       <c r="D24">
-        <v>1.01502136087884</v>
+        <v>1.015313105187523</v>
       </c>
       <c r="E24">
-        <v>0.9961271040890878</v>
+        <v>0.9966328194626335</v>
       </c>
       <c r="F24">
-        <v>1.016764518177297</v>
+        <v>1.017106758396595</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042992944471993</v>
+        <v>1.043136027516955</v>
       </c>
       <c r="J24">
-        <v>1.014828588386785</v>
+        <v>1.015383442224254</v>
       </c>
       <c r="K24">
-        <v>1.028789721652092</v>
+        <v>1.029076538220649</v>
       </c>
       <c r="L24">
-        <v>1.010222575199398</v>
+        <v>1.010719325725816</v>
       </c>
       <c r="M24">
-        <v>1.030503490155466</v>
+        <v>1.03083997562353</v>
       </c>
       <c r="N24">
-        <v>1.008831143726335</v>
+        <v>1.011369037489905</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031478605782342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031695310212162</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020118905812397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9934116647947934</v>
+        <v>0.9937189305490314</v>
       </c>
       <c r="D25">
-        <v>1.01942284524088</v>
+        <v>1.019385657196871</v>
       </c>
       <c r="E25">
-        <v>1.001219945298573</v>
+        <v>1.001491264609873</v>
       </c>
       <c r="F25">
-        <v>1.022180067846747</v>
+        <v>1.022218207938669</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044228627067395</v>
+        <v>1.044226299518288</v>
       </c>
       <c r="J25">
-        <v>1.018162805340241</v>
+        <v>1.018459542594879</v>
       </c>
       <c r="K25">
-        <v>1.031726947184017</v>
+        <v>1.031690308845654</v>
       </c>
       <c r="L25">
-        <v>1.01379935266091</v>
+        <v>1.014066474641808</v>
       </c>
       <c r="M25">
-        <v>1.034443554576818</v>
+        <v>1.034481134797356</v>
       </c>
       <c r="N25">
-        <v>1.009961535459357</v>
+        <v>1.012150473506199</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033552518557098</v>
+        <v>1.033540208703899</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020654773237536</v>
       </c>
     </row>
   </sheetData>
